--- a/excel/Flurryキー追加案_ver2.xlsx
+++ b/excel/Flurryキー追加案_ver2.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="-21135" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-720" yWindow="-21135" windowWidth="29040" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="キー再検討事項" sheetId="5" r:id="rId1"/>
     <sheet name="概要" sheetId="1" r:id="rId2"/>
     <sheet name="検討" sheetId="6" r:id="rId3"/>
+    <sheet name="キー再検討事項ver2" sheetId="8" r:id="rId4"/>
+    <sheet name="概要ver2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AS2DocOpenMode" hidden="1">"AS2DocumentEdit"</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Event Name</t>
   </si>
@@ -627,6 +629,42 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Complete Regist</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>本登録完了</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>本登録完了後マイページへの遷移のタイミングでトラッキング</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,8 +888,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1477,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1518,27 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="67" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="45" borderId="11" xfId="67" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="45" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="45" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="45" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="45" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="44" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="44" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -1576,7 +1649,7 @@
         <xdr:cNvPr id="41" name="カギ線コネクタ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1708,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1758,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1808,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1858,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1932,7 @@
         <xdr:cNvPr id="10" name="カギ線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1991,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +2061,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2131,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2201,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2271,7 @@
         <xdr:cNvPr id="24" name="カギ線コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2332,7 @@
         <xdr:cNvPr id="27" name="正方形/長方形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2402,7 @@
         <xdr:cNvPr id="28" name="カギ線コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2463,7 @@
         <xdr:cNvPr id="31" name="カギ線コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2521,7 @@
         <xdr:cNvPr id="34" name="四角形吹き出し 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2602,7 @@
         <xdr:cNvPr id="35" name="四角形吹き出し 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2851,7 @@
         <xdr:cNvPr id="36" name="四角形吹き出し 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3092,7 @@
         <xdr:cNvPr id="37" name="カギ線コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3153,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3227,7 @@
         <xdr:cNvPr id="46" name="カギ線コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3288,7 @@
         <xdr:cNvPr id="50" name="正方形/長方形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3358,7 @@
         <xdr:cNvPr id="51" name="四角形吹き出し 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3583,7 @@
         <xdr:cNvPr id="52" name="四角形吹き出し 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3786,7 +3859,7 @@
         <xdr:cNvPr id="53" name="四角形吹き出し 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3862,7 +3935,7 @@
         <xdr:cNvPr id="58" name="図 57" descr="「twitter sns 連携　許可画面」の画像検索結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3996,7 @@
         <xdr:cNvPr id="59" name="カギ線コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +4057,7 @@
         <xdr:cNvPr id="66" name="図 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,7 +4107,7 @@
         <xdr:cNvPr id="64" name="四角形吹き出し 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4188,7 @@
         <xdr:cNvPr id="68" name="カギ線コネクタ 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4249,7 @@
         <xdr:cNvPr id="71" name="カギ線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4310,7 @@
         <xdr:cNvPr id="74" name="図 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4360,7 @@
         <xdr:cNvPr id="63" name="四角形吹き出し 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4442,7 @@
         <xdr:cNvPr id="77" name="テキスト ボックス 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4443,7 +4516,7 @@
         <xdr:cNvPr id="78" name="カギ線コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4577,7 @@
         <xdr:cNvPr id="81" name="カギ線コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4636,7 @@
         <xdr:cNvPr id="82" name="四角形吹き出し 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +4717,7 @@
         <xdr:cNvPr id="85" name="四角形吹き出し 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +5092,7 @@
         <xdr:cNvPr id="86" name="カギ線コネクタ 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5153,7 @@
         <xdr:cNvPr id="89" name="カギ線コネクタ 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5141,7 +5214,7 @@
         <xdr:cNvPr id="92" name="カギ線コネクタ 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,7 +5273,7 @@
         <xdr:cNvPr id="95" name="四角形吹き出し 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5632,7 @@
         <xdr:cNvPr id="97" name="カギ線コネクタ 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5693,7 @@
         <xdr:cNvPr id="100" name="テキスト ボックス 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5697,7 +5770,7 @@
         <xdr:cNvPr id="101" name="四角形吹き出し 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5880,7 +5953,7 @@
         <xdr:cNvPr id="118" name="図 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +6003,7 @@
         <xdr:cNvPr id="119" name="カギ線コネクタ 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +6064,7 @@
         <xdr:cNvPr id="122" name="カギ線コネクタ 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6050,7 +6123,7 @@
         <xdr:cNvPr id="137" name="カギ線コネクタ 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6109,7 +6182,7 @@
         <xdr:cNvPr id="141" name="カギ線コネクタ 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6170,7 +6243,7 @@
         <xdr:cNvPr id="144" name="四角形吹き出し 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7203,7 @@
         <xdr:cNvPr id="145" name="四角形吹き出し 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7310,7 +7383,7 @@
         <xdr:cNvPr id="151" name="テキスト ボックス 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7530,7 @@
         <xdr:cNvPr id="65" name="カギ線コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7495,6 +7568,5299 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="カギ線コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8797019" y="1464127"/>
+          <a:ext cx="2337708" cy="3524251"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057399" y="1496785"/>
+          <a:ext cx="2703740" cy="4851640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658092</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58839</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7420842" y="6664779"/>
+          <a:ext cx="2782122" cy="4822371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45553</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005693" y="7900308"/>
+          <a:ext cx="2773785" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7452633" y="1494064"/>
+          <a:ext cx="1502227" cy="563336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658092</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4193721" y="4128408"/>
+          <a:ext cx="3227121" cy="4950279"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2668360" y="3894364"/>
+          <a:ext cx="1525361" cy="473529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3072493" y="3099707"/>
+          <a:ext cx="703489" cy="527957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3045279" y="4620985"/>
+          <a:ext cx="703489" cy="522515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8441871" y="9552214"/>
+          <a:ext cx="703490" cy="527958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45553</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4779478" y="9813470"/>
+          <a:ext cx="3662393" cy="487137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7768318" y="8909957"/>
+          <a:ext cx="2121353" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9169</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2014359" y="6519685"/>
+          <a:ext cx="2756808" cy="4438"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3844017" y="1775733"/>
+          <a:ext cx="3608616" cy="1590674"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形吹き出し 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11727998" y="3956958"/>
+          <a:ext cx="2069644" cy="870857"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン認証失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒　特に何もしない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形吹き出し 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11741602" y="1538967"/>
+          <a:ext cx="5192485" cy="2267569"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン認証成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>⇒　非同期処理完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>認証結果（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>/data@result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>）が「成功（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>）」の場合の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、取得データ格納時のタイミングで発火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Complete Login </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXX:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ログインタイプ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.Macromill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5913665" y="2166257"/>
+          <a:ext cx="4516211" cy="1254578"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96276"/>
+            <a:gd name="adj2" fmla="val 39309"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタン押下時、かつ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EditText</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チェックに引っかからなかった場合、発火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Push Login Button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ログインタイプ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.Macromill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8954860" y="1775733"/>
+          <a:ext cx="2786742" cy="897019"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71156"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11537497" y="6343650"/>
+          <a:ext cx="1502226" cy="568779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9889671" y="6630761"/>
+          <a:ext cx="1647826" cy="2540453"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2355396" y="10300607"/>
+          <a:ext cx="2096860" cy="527958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191738</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643660</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>20616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形吹き出し 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4925663" y="11797969"/>
+          <a:ext cx="4509572" cy="1252847"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82504"/>
+            <a:gd name="adj2" fmla="val -133323"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタン押下時、発火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Push Login Button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： ログインタイプ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.Google 3.LINE 4.Twitter 5.Facebook 6.Yahoo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形吹き出し 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6208939" y="4814209"/>
+          <a:ext cx="4520293" cy="1254578"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8252"/>
+            <a:gd name="adj2" fmla="val 270888"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタン押下時、発火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Push Regist Button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： ログインタイプ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.Macromill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形吹き出し 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192249" y="8221436"/>
+          <a:ext cx="2065563" cy="865414"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒　特に何もしない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2970573" cy="3156857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="「twitter sns 連携　許可画面」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11323865" y="9867900"/>
+          <a:ext cx="2970573" cy="3156857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628038</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7052277" y="7178073"/>
+          <a:ext cx="2098220" cy="9399202"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 135094"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>385732</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15191015" y="9786258"/>
+          <a:ext cx="2777867" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形吹き出し 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15581540" y="11438164"/>
+          <a:ext cx="2069644" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソーシャル連携失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒　エラーダイアログ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>72252</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14274027" y="11397343"/>
+          <a:ext cx="916988" cy="789215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628036</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>16331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>52712</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="カギ線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="16531514" y="6058453"/>
+          <a:ext cx="78920" cy="7539976"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 803460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89096</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18952029" y="9788980"/>
+          <a:ext cx="2777867" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>122462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形吹き出し 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19303094" y="11438162"/>
+          <a:ext cx="2069646" cy="1262744"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソーシャル連携成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒　ログイン処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>122462</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22970217" y="11672207"/>
+          <a:ext cx="1498145" cy="568780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21372740" y="11959318"/>
+          <a:ext cx="1597477" cy="110217"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>519794</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="カギ線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="23424016" y="12534220"/>
+          <a:ext cx="1058635" cy="472170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>519794</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形吹き出し 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24189419" y="12861471"/>
+          <a:ext cx="2069645" cy="870857"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン認証失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒　特に何もしない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>625927</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形吹き出し 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24876578" y="8167007"/>
+          <a:ext cx="6857999" cy="2840429"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン認証成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⇒　非同期処理完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>認証結果（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/data@result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）が「成功（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）」の場合の、取得データ格納時のタイミングで発火</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>状態によってトラッキング内容が変わる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Complete Login </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXX </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： ログインタイプ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.Google 3.LINE 4.Twitter 5.Facebook 6.Yahoo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>41438</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>578303</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="0"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="25675935" y="9042564"/>
+          <a:ext cx="664771" cy="4594515"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29934</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13039723" y="6628906"/>
+          <a:ext cx="1191986" cy="74963"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115660</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12369572" y="6831466"/>
+          <a:ext cx="1741715" cy="1903639"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29934</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形吹き出し 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14231709" y="5624946"/>
+          <a:ext cx="4867276" cy="2159577"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⇒　非同期処理完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>認証結果（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/data@result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）が「成功（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）」の場合の、取得データ格納時のタイミングで発火</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Complete Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXX:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ログインタイプ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.Macromill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>379763</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19098985" y="5286994"/>
+          <a:ext cx="1569028" cy="1416875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>379763</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>529439</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20668013" y="5001738"/>
+          <a:ext cx="1502226" cy="568780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>初回ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>WEB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ページ表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>528204</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>672935</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形吹き出し 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17435079" y="3776849"/>
+          <a:ext cx="2849831" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63020"/>
+            <a:gd name="adj2" fmla="val 103039"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外部ブラウザ表示タイミングで発火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Blank Page</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>8987</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>532561</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23678612" y="1110342"/>
+          <a:ext cx="3228674" cy="6435518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>529439</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>8987</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="カギ線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22170239" y="4328102"/>
+          <a:ext cx="1508373" cy="958892"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>454601</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16934087" y="2672752"/>
+          <a:ext cx="4485039" cy="2328986"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>454601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="21419126" y="5570519"/>
+          <a:ext cx="3457452" cy="4017569"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>270776</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="0"/>
+          <a:endCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="26488691" y="6350119"/>
+          <a:ext cx="621148" cy="3012628"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>353787</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形吹き出し 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27214286" y="938892"/>
+          <a:ext cx="5600701" cy="1755323"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全体注意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(LoginType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の場合はトラッキング不要です！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>665230</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2027959" y="171450"/>
+          <a:ext cx="4047471" cy="1029498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>Tracking</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>データ追加　概要図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="十字形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18016104" y="3361458"/>
+          <a:ext cx="1682461" cy="1610591"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 41667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="18900000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16941512" y="1885950"/>
+          <a:ext cx="6692611" cy="258041"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>445327</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23777863" y="3134589"/>
+          <a:ext cx="3008419" cy="658092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>607497</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23571406" y="2976499"/>
+          <a:ext cx="3410321" cy="954727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>524203</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>372368</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32943839" y="1058388"/>
+          <a:ext cx="3225211" cy="6501327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="カギ線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26981727" y="3082636"/>
+          <a:ext cx="5922818" cy="371227"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形吹き出し 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33060409" y="1853045"/>
+          <a:ext cx="3013363" cy="4693228"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47950"/>
+            <a:gd name="adj2" fmla="val 27529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>登録完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>smartShowMonitorMyPageAction.do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>読み込みタイミングで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Complete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Resist</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をトラッキング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9030</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>471673</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形吹き出し 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27700803" y="4571755"/>
+          <a:ext cx="4515097" cy="1266701"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83814"/>
+            <a:gd name="adj2" fmla="val -113292"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>事業部側でバナータップをトラッキング予定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7789,7 +13155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7911,8 +13277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8019,19 +13385,159 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="14"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="62.1" customHeight="1">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="54">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="57" customHeight="1">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="129" customHeight="1">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT38" sqref="AT38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8187,18 +13693,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B5A40F-7498-44CC-84AD-691BC2CC7CFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14426C74-6263-436D-9FCC-5E62A43437D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14426C74-6263-436D-9FCC-5E62A43437D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B5A40F-7498-44CC-84AD-691BC2CC7CFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
